--- a/Inventory List.xlsx
+++ b/Inventory List.xlsx
@@ -973,7 +973,7 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Avaliable</t>
+          <t>Unavaliable</t>
         </is>
       </c>
     </row>
@@ -1039,7 +1039,7 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Unavaliable</t>
+          <t>Avaliable</t>
         </is>
       </c>
     </row>
